--- a/data/IEEE9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A85EA-2F43-4437-83EE-44A13CDBA29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22923CE-89DD-4A62-8300-35C568FEA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="3435" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22923CE-89DD-4A62-8300-35C568FEA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B4658-B37E-48AA-9937-4D3094831B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6870" yWindow="3435" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/IEEE9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A85EA-2F43-4437-83EE-44A13CDBA29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC957A-5906-4364-8B4F-3A86AAEFA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="5745" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>7.0563225747462732E-4</v>
+        <v>1.1760537624577122E-3</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.42908201517783662</v>
+        <v>0.71513669196306096</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>8.500607799213677</v>
+        <v>14.167679665356129</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>22.180541967632806</v>
+        <v>36.967569946054674</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>27.680225381731731</v>
+        <v>46.133708969552885</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>30.744512663436034</v>
+        <v>51.240854439060058</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>31.314663527475542</v>
+        <v>52.191105879125907</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>30.739645240925295</v>
+        <v>51.232742068208822</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>26.247302276675502</v>
+        <v>43.745503794459168</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>17.344944911767392</v>
+        <v>28.908241519612321</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>4.237573717655664</v>
+        <v>7.0626228627594401</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.3121514126360066E-2</v>
+        <v>5.5202523543933436E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>2.8513303465301271E-3</v>
+        <v>4.7522172442168789E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.1816997348450217E-3</v>
+        <v>3.6361662247417024E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>7.0563225747462732E-4</v>
+        <v>1.1760537624577122E-3</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.42908201517783662</v>
+        <v>0.71513669196306096</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>8.500607799213677</v>
+        <v>14.167679665356129</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>22.180541967632806</v>
+        <v>36.967569946054674</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>27.680225381731731</v>
+        <v>46.133708969552885</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>30.744512663436034</v>
+        <v>51.240854439060058</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>31.314663527475542</v>
+        <v>52.191105879125907</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>30.739645240925295</v>
+        <v>51.232742068208822</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>26.247302276675502</v>
+        <v>43.745503794459168</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>17.344944911767392</v>
+        <v>28.908241519612321</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>4.237573717655664</v>
+        <v>7.0626228627594401</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.3121514126360066E-2</v>
+        <v>5.5202523543933436E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>2.8513303465301271E-3</v>
+        <v>4.7522172442168789E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.1816997348450217E-3</v>
+        <v>3.6361662247417024E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.2264344262295081E-3</v>
+        <v>2.0440573770491802E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.34380184426229504</v>
+        <v>0.57300307377049176</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>6.7668196721311462</v>
+        <v>11.278032786885245</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>16.097274590163934</v>
+        <v>26.828790983606559</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>21.6621368852459</v>
+        <v>36.103561475409833</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>26.567822950819671</v>
+        <v>44.279704918032785</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>31.55138114754098</v>
+        <v>52.585635245901635</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>26.330320696721309</v>
+        <v>43.883867827868848</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>19.347519467213115</v>
+        <v>32.245865778688525</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>9.2812426229508187</v>
+        <v>15.468737704918032</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.9389928278688522</v>
+        <v>3.2316547131147533</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.2393442622950817E-2</v>
+        <v>2.0655737704918027E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>5.4221311475409831E-3</v>
+        <v>9.036885245901639E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.2264344262295081E-3</v>
+        <v>2.0440573770491802E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.34380184426229504</v>
+        <v>0.57300307377049176</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>6.7668196721311462</v>
+        <v>11.278032786885245</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>16.097274590163934</v>
+        <v>26.828790983606559</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>21.6621368852459</v>
+        <v>36.103561475409833</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>26.567822950819671</v>
+        <v>44.279704918032785</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>31.55138114754098</v>
+        <v>52.585635245901635</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>26.330320696721309</v>
+        <v>43.883867827868848</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>19.347519467213115</v>
+        <v>32.245865778688525</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>9.2812426229508187</v>
+        <v>15.468737704918032</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.9389928278688522</v>
+        <v>3.2316547131147533</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.2393442622950817E-2</v>
+        <v>2.0655737704918027E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>5.4221311475409831E-3</v>
+        <v>9.036885245901639E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.37172551252847374</v>
+        <v>0.61954252088078954</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>8.1170202164009115</v>
+        <v>13.528367027334852</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>18.897957004555806</v>
+        <v>31.496595007593012</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>27.252761958997723</v>
+        <v>45.42126993166287</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>28.05516087699316</v>
+        <v>46.75860146165526</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>26.63881691343963</v>
+        <v>44.398028189066046</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>20.856392369020497</v>
+        <v>34.760653948367498</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>16.065956719817766</v>
+        <v>26.776594533029609</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>6.8170273348519359</v>
+        <v>11.361712224753227</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.2035236332574031</v>
+        <v>2.0058727220956718</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.9533029612756264E-3</v>
+        <v>3.2555049354593777E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.37172551252847374</v>
+        <v>0.61954252088078954</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>8.1170202164009115</v>
+        <v>13.528367027334852</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>18.897957004555806</v>
+        <v>31.496595007593012</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>27.252761958997723</v>
+        <v>45.42126993166287</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>28.05516087699316</v>
+        <v>46.75860146165526</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>26.63881691343963</v>
+        <v>44.398028189066046</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>20.856392369020497</v>
+        <v>34.760653948367498</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>16.065956719817766</v>
+        <v>26.776594533029609</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>6.8170273348519359</v>
+        <v>11.361712224753227</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.2035236332574031</v>
+        <v>2.0058727220956718</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.9533029612756264E-3</v>
+        <v>3.2555049354593777E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>8.8909664441803047E-4</v>
+        <v>1.4818277406967175E-3</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.51918923836518227</v>
+        <v>0.86531539727530382</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>10.79577190500137</v>
+        <v>17.992953175002281</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>28.612899138246316</v>
+        <v>47.688165230410526</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>35.984292996251256</v>
+        <v>59.973821660418757</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>37.200860322757599</v>
+        <v>62.001433871262662</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>40.709062585718208</v>
+        <v>67.848437642863672</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>39.654142360793628</v>
+        <v>66.09023726798938</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>33.334073891377884</v>
+        <v>55.556789818963139</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>21.334282241473893</v>
+        <v>35.557137069123158</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>5.3393428842461361</v>
+        <v>8.8989048070768941</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>4.173310779921368E-2</v>
+        <v>6.955517966535614E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.5356496296973577E-3</v>
+        <v>5.8927493828289292E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.6398566791624761E-3</v>
+        <v>4.3997611319374604E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>8.8909664441803047E-4</v>
+        <v>1.4818277406967175E-3</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.51918923836518227</v>
+        <v>0.86531539727530382</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>10.79577190500137</v>
+        <v>17.992953175002281</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>28.612899138246316</v>
+        <v>47.688165230410526</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>35.984292996251256</v>
+        <v>59.973821660418757</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>37.200860322757599</v>
+        <v>62.001433871262662</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>40.709062585718208</v>
+        <v>67.848437642863672</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>39.654142360793628</v>
+        <v>66.09023726798938</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>33.334073891377884</v>
+        <v>55.556789818963139</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>21.334282241473893</v>
+        <v>35.557137069123158</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>5.3393428842461361</v>
+        <v>8.8989048070768941</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>4.173310779921368E-2</v>
+        <v>6.955517966535614E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.5356496296973577E-3</v>
+        <v>5.8927493828289292E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.6398566791624761E-3</v>
+        <v>4.3997611319374604E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.5575717213114754E-3</v>
+        <v>2.5959528688524591E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.44694239754098353</v>
+        <v>0.74490399590163925</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>8.7291973770491804</v>
+        <v>14.548662295081966</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>20.765484221311478</v>
+        <v>34.609140368852465</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>27.510913844262294</v>
+        <v>45.851523073770494</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>34.53816983606557</v>
+        <v>57.563616393442622</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>41.016795491803272</v>
+        <v>68.361325819672118</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>34.2294169057377</v>
+        <v>57.049028176229506</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>23.603973749999998</v>
+        <v>39.33995625</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>11.78717813114754</v>
+        <v>19.645296885245902</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>2.4819108196721307</v>
+        <v>4.1365180327868849</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4996065573770487E-2</v>
+        <v>2.4993442622950814E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>6.6149999999999994E-3</v>
+        <v>1.1025E-2</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.5575717213114754E-3</v>
+        <v>2.5959528688524591E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.44694239754098353</v>
+        <v>0.74490399590163925</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>8.7291973770491804</v>
+        <v>14.548662295081966</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>20.765484221311478</v>
+        <v>34.609140368852465</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>27.510913844262294</v>
+        <v>45.851523073770494</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>34.53816983606557</v>
+        <v>57.563616393442622</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>41.016795491803272</v>
+        <v>68.361325819672118</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>34.2294169057377</v>
+        <v>57.049028176229506</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>23.603973749999998</v>
+        <v>39.33995625</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>11.78717813114754</v>
+        <v>19.645296885245902</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>2.4819108196721307</v>
+        <v>4.1365180327868849</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4996065573770487E-2</v>
+        <v>2.4993442622950814E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>6.6149999999999994E-3</v>
+        <v>1.1025E-2</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.46093963553530742</v>
+        <v>0.76823272589217906</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>9.9839348661731204</v>
+        <v>16.639891443621867</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>23.433466685649197</v>
+        <v>39.055777809415332</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>34.611007687927113</v>
+        <v>57.685012813211848</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>36.191157531321174</v>
+        <v>60.318595885535288</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>31.966580296127553</v>
+        <v>53.277633826879253</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>25.653362613895212</v>
+        <v>42.755604356492022</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>20.564424601366742</v>
+        <v>34.274041002277905</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>8.7939652619589967</v>
+        <v>14.656608769931662</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.5525454869020499</v>
+        <v>2.5875758115034162</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.5392938496583144E-3</v>
+        <v>4.2321564160971905E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.46093963553530742</v>
+        <v>0.76823272589217906</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>9.9839348661731204</v>
+        <v>16.639891443621867</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>23.433466685649197</v>
+        <v>39.055777809415332</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>34.611007687927113</v>
+        <v>57.685012813211848</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>36.191157531321174</v>
+        <v>60.318595885535288</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>31.966580296127553</v>
+        <v>53.277633826879253</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>25.653362613895212</v>
+        <v>42.755604356492022</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>20.564424601366742</v>
+        <v>34.274041002277905</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>8.7939652619589967</v>
+        <v>14.656608769931662</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.5525454869020499</v>
+        <v>2.5875758115034162</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.5392938496583144E-3</v>
+        <v>4.2321564160971905E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC957A-5906-4364-8B4F-3A86AAEFA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC1FD5D-5BB2-4ABA-B729-42E8AE1FF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="5745" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y9"/>
+      <selection activeCell="B3" sqref="B3:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC369B-4AD5-4350-BA02-CBD696C26A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB13DD1-4F46-42B3-BC6A-995A57E9C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1140" windowWidth="21600" windowHeight="12735" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>20.412232732564647</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>18.8638755177432</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>19.971945035262511</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>19.88497593193776</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>16.371521325422588</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>16.605539012649729</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>16.641240344788983</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>14.944204634501286</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>13.496302473972912</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>9.7558983544162086</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>8.9983342662039618</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>6.0369416769282438</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>5.0174594201276168</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>4.8040859733572141</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>6.6648259263405354</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>9.0159616030448877</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>10.080336952871376</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>13.84439438038733</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>12.592571364603156</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>11.971230269786187</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>15.7957354752043</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>18.892265756184933</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>17.861495578193217</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>25.38875629687675</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>20.412232732564647</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>18.8638755177432</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>19.971945035262511</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>19.88497593193776</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>16.371521325422588</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>16.605539012649729</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>16.641240344788983</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>14.944204634501286</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>13.496302473972912</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>9.7558983544162086</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>8.9983342662039618</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>6.0369416769282438</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>5.0174594201276168</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>4.8040859733572141</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>6.6648259263405354</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>9.0159616030448877</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>10.080336952871376</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>13.84439438038733</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>12.592571364603156</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>11.971230269786187</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>15.7957354752043</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>18.892265756184933</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>17.861495578193217</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>25.38875629687675</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>15.309174549423485</v>
+        <v>20.412232732564647</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>14.147906638307401</v>
+        <v>18.8638755177432</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>14.978958776446882</v>
+        <v>19.971945035262511</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>14.91373194895332</v>
+        <v>19.88497593193776</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>12.278640994066942</v>
+        <v>16.371521325422588</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>12.454154259487296</v>
+        <v>16.605539012649729</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>12.480930258591737</v>
+        <v>16.641240344788983</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>11.208153475875964</v>
+        <v>14.944204634501286</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>10.122226855479685</v>
+        <v>13.496302473972912</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>7.316923765812156</v>
+        <v>9.7558983544162086</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>6.7487506996529714</v>
+        <v>8.9983342662039618</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>4.5277062576961828</v>
+        <v>6.0369416769282438</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>3.7630945650957126</v>
+        <v>5.0174594201276168</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>3.603064480017911</v>
+        <v>4.8040859733572141</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>4.9986194447554011</v>
+        <v>6.6648259263405354</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>6.7619712022836653</v>
+        <v>9.0159616030448877</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>7.5602527146535321</v>
+        <v>10.080336952871376</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>10.383295785290498</v>
+        <v>13.84439438038733</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>9.4444285234523662</v>
+        <v>12.592571364603156</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>8.978422702339639</v>
+        <v>11.971230269786187</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>11.846801606403226</v>
+        <v>15.7957354752043</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>14.169199317138698</v>
+        <v>18.892265756184933</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>13.396121683644912</v>
+        <v>17.861495578193217</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>19.041567222657562</v>
+        <v>25.38875629687675</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>27.703766847049216</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>24.361313304063714</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>20.050052327955882</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>17.357691443741064</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>16.182470134776395</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>12.958676740861751</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>12.616610169491524</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>11.438546048601184</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>11.789632428017152</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>12.468884010618748</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>12.480403563406167</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>14.628781396773533</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>14.635149581376352</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>14.838223912599551</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>16.708792372881359</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>13.793273432713908</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>14.288565958750253</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>15.129852460690218</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>13.198521799060646</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>13.670744843781907</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>12.810804063712478</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>11.625517663875842</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>11.915345109250561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>13.029891770471718</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>27.703766847049216</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>24.361313304063714</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>20.050052327955882</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>17.357691443741064</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>16.182470134776395</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>12.958676740861751</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>12.616610169491524</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>11.438546048601184</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>11.789632428017152</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>12.468884010618748</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>12.480403563406167</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>14.628781396773533</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>14.635149581376352</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>14.838223912599551</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>16.708792372881359</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>13.793273432713908</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>14.288565958750253</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>15.129852460690218</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>13.198521799060646</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>13.670744843781907</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>12.810804063712478</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>11.625517663875842</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>11.915345109250561</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>13.029891770471718</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>20.777825135286914</v>
+        <v>27.703766847049216</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>18.270984978047785</v>
+        <v>24.361313304063714</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>15.037539245966911</v>
+        <v>20.050052327955882</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>13.018268582805797</v>
+        <v>17.357691443741064</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>12.136852601082296</v>
+        <v>16.182470134776395</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>9.7190075556463142</v>
+        <v>12.958676740861751</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>9.4624576271186438</v>
+        <v>12.616610169491524</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>8.5789095364508885</v>
+        <v>11.438546048601184</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>8.8422243210128642</v>
+        <v>11.789632428017152</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>9.3516630079640617</v>
+        <v>12.468884010618748</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>9.3603026725546243</v>
+        <v>12.480403563406167</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>10.97158604758015</v>
+        <v>14.628781396773533</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>10.976362186032263</v>
+        <v>14.635149581376352</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>11.128667934449663</v>
+        <v>14.838223912599551</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>12.531594279661018</v>
+        <v>16.708792372881359</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>10.344955074535431</v>
+        <v>13.793273432713908</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>10.716424469062689</v>
+        <v>14.288565958750253</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>11.347389345517664</v>
+        <v>15.129852460690218</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>9.8988913492954858</v>
+        <v>13.198521799060646</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>10.253058632836431</v>
+        <v>13.670744843781907</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>9.6081030477843576</v>
+        <v>12.810804063712478</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>8.7191382479068817</v>
+        <v>11.625517663875842</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>8.9365088319379211</v>
+        <v>11.915345109250561</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>9.7724188278537873</v>
+        <v>13.029891770471718</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>25.277947125666728</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>23.493725424514935</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>25.463099281094589</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>28.392266226906123</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>24.285766703599677</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>20.603155968976267</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>14.829560153572622</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>13.200958540544718</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>13.468440825581693</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>13.165847612667163</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>13.31858537967997</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>14.008838156097811</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>12.814265763096188</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>12.34846066634028</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>16.919838181865032</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>22.042235048571204</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>22.504470612486791</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>22.910960859594422</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>23.542741116751273</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>24.835967172563063</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>24.495400551418484</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>23.97194362132495</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>22.953515679352726</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>21.170439331082996</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>25.277947125666728</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>23.493725424514935</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>25.463099281094589</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>28.392266226906123</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>24.285766703599677</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>20.603155968976267</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>14.829560153572622</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>13.200958540544718</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>13.468440825581693</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>13.165847612667163</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>13.31858537967997</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>14.008838156097811</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>12.814265763096188</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>12.34846066634028</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>16.919838181865032</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>22.042235048571204</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>22.504470612486791</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>22.910960859594422</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>23.542741116751273</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>24.835967172563063</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>24.495400551418484</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>23.97194362132495</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>22.953515679352726</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>21.170439331082996</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>18.958460344250046</v>
+        <v>25.277947125666728</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>17.620294068386201</v>
+        <v>23.493725424514935</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>19.097324460820943</v>
+        <v>25.463099281094589</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>21.294199670179594</v>
+        <v>28.392266226906123</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>18.214325027699758</v>
+        <v>24.285766703599677</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>15.452366976732199</v>
+        <v>20.603155968976267</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>11.122170115179467</v>
+        <v>14.829560153572622</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>9.9007189054085387</v>
+        <v>13.200958540544718</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>10.101330619186269</v>
+        <v>13.468440825581693</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>9.8743857095003715</v>
+        <v>13.165847612667163</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>9.9889390347599782</v>
+        <v>13.31858537967997</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>10.506628617073359</v>
+        <v>14.008838156097811</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>9.6106993223221409</v>
+        <v>12.814265763096188</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>9.26134549975521</v>
+        <v>12.34846066634028</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>12.689878636398772</v>
+        <v>16.919838181865032</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>16.531676286428404</v>
+        <v>22.042235048571204</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>16.878352959365095</v>
+        <v>22.504470612486791</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>17.183220644695815</v>
+        <v>22.910960859594422</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>17.657055837563455</v>
+        <v>23.542741116751273</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>18.626975379422298</v>
+        <v>24.835967172563063</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>18.371550413563863</v>
+        <v>24.495400551418484</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>17.978957715993712</v>
+        <v>23.97194362132495</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>17.215136759514547</v>
+        <v>22.953515679352726</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>15.877829498312249</v>
+        <v>21.170439331082996</v>
       </c>
     </row>
   </sheetData>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>15.717419204074778</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>14.579519875741633</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>14.317182670995187</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>12.27864099406694</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>11.62387730885481</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>12.813755065487518</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>11.656479614911001</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>9.5823747565207675</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>6.9266878316355074</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>7.1086840703011305</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>4.4069674241576182</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>3.612570782491884</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>3.8432687786857711</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>5.1319159632822124</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>6.4914923541923191</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>7.6610560841822464</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>10.521739729094371</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>9.5703542370983978</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>8.4995734915481904</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>12.63658838016344</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>13.602431344453151</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>13.217506727862979</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>19.295454785626333</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>15.717419204074778</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>14.579519875741633</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>14.317182670995187</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>12.27864099406694</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>11.62387730885481</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>12.813755065487518</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>11.656479614911001</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>9.5823747565207675</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>6.9266878316355074</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>7.1086840703011305</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>4.4069674241576182</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>3.612570782491884</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>3.8432687786857711</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>5.1319159632822124</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>6.4914923541923191</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>7.6610560841822464</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>10.521739729094371</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>9.5703542370983978</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>8.4995734915481904</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>12.63658838016344</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>13.602431344453151</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>13.217506727862979</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>19.295454785626333</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>11.788064403056083</v>
+        <v>15.717419204074778</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>10.610929978730551</v>
+        <v>14.147906638307401</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>10.934639906806225</v>
+        <v>14.579519875741633</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>10.73788700324639</v>
+        <v>14.317182670995187</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>9.2089807455502051</v>
+        <v>12.27864099406694</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>8.7179079816411083</v>
+        <v>11.62387730885481</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>9.6103162991156381</v>
+        <v>12.813755065487518</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>8.7423597111832514</v>
+        <v>11.656479614911001</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>7.1867810673905765</v>
+        <v>9.5823747565207675</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>5.1950158737266303</v>
+        <v>6.9266878316355074</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>5.3315130527258479</v>
+        <v>7.1086840703011305</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>3.3052255681182134</v>
+        <v>4.4069674241576182</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>2.7094280868689129</v>
+        <v>3.612570782491884</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>2.8824515840143281</v>
+        <v>3.8432687786857711</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>3.8489369724616589</v>
+        <v>5.1319159632822124</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>4.8686192656442389</v>
+        <v>6.4914923541923191</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>5.745792063136685</v>
+        <v>7.6610560841822464</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>7.8913047968207781</v>
+        <v>10.521739729094371</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>7.1777656778237988</v>
+        <v>9.5703542370983978</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>6.3746801186611437</v>
+        <v>8.4995734915481904</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>9.4774412851225804</v>
+        <v>12.63658838016344</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>10.201823508339864</v>
+        <v>13.602431344453151</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>9.9131300458972351</v>
+        <v>13.217506727862979</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>14.471591089219748</v>
+        <v>19.295454785626333</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>20.777825135286918</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>17.052919312844597</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>15.438540292526032</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>13.538999326118031</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>10.366941392689402</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>9.7147898305084741</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>9.0364513783949345</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>8.4885353481723484</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>9.4763518480702498</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>8.8610865300183779</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>10.240146977741473</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>11.269065177659792</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>10.831903456197672</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>12.364506355932205</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>10.896686011843988</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>10.287767490300181</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>10.590896722483151</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>10.162861785276698</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>10.663180978149889</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>9.9924271696957323</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>8.4866278946293647</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>9.5322760874004491</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>9.1209242393302006</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>20.777825135286918</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>17.052919312844597</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>15.438540292526032</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>13.538999326118031</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>10.366941392689402</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>9.7147898305084741</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>9.0364513783949345</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>8.4885353481723484</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>9.4763518480702498</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>8.8610865300183779</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>10.240146977741473</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>11.269065177659792</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>10.831903456197672</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>12.364506355932205</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>10.896686011843988</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>10.287767490300181</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>10.590896722483151</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>10.162861785276698</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>10.663180978149889</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>9.9924271696957323</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>8.4866278946293647</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>9.5322760874004491</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>9.1209242393302006</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>15.583368851465186</v>
+        <v>20.777825135286918</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>12.789689484633449</v>
+        <v>17.052919312844597</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>11.578905219394523</v>
+        <v>15.438540292526032</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>10.154249494588523</v>
+        <v>13.538999326118031</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>9.1026394508117221</v>
+        <v>12.136852601082296</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>7.7752060445170512</v>
+        <v>10.366941392689402</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>7.2860923728813551</v>
+        <v>9.7147898305084741</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>6.7773385337962013</v>
+        <v>9.0364513783949345</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>6.3664015111292613</v>
+        <v>8.4885353481723484</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>7.1072638860526869</v>
+        <v>9.4763518480702498</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>6.645814897513783</v>
+        <v>8.8610865300183779</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>7.6801102333061051</v>
+        <v>10.240146977741473</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>8.4517988832448445</v>
+        <v>11.269065177659792</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>8.1239275921482541</v>
+        <v>10.831903456197672</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>9.2733797669491533</v>
+        <v>12.364506355932205</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>8.1725145088829905</v>
+        <v>10.896686011843988</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>7.7158256177251356</v>
+        <v>10.287767490300181</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>7.9431725418623635</v>
+        <v>10.590896722483151</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>7.6221463389575232</v>
+        <v>10.162861785276698</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>7.9973857336124166</v>
+        <v>10.663180978149889</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>7.4943203772717997</v>
+        <v>9.9924271696957323</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>6.3649709209720235</v>
+        <v>8.4866278946293647</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>7.1492070655503364</v>
+        <v>9.5322760874004491</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>6.8406931794976513</v>
+        <v>9.1209242393302006</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>17.947342459223378</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>16.680545051405602</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>20.115848432064727</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>20.442431683372408</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>16.070461655801488</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>11.715352521322371</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>10.032728490813987</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>10.370699435697903</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>9.7427272333736994</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>10.654868303743976</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>11.066982143317272</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>9.0981286917982942</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>9.6317993197454186</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>12.351481872761472</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>16.090831585456979</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>15.753129428740756</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>16.954111036099874</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>16.479918781725893</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>18.861458424592232</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>18.218677152206961</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>16.756066445927491</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>16.301238284933909</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>17.947342459223378</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>16.680545051405602</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>20.115848432064727</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>20.442431683372408</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>16.070461655801488</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>11.715352521322371</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>10.032728490813987</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>10.370699435697903</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>9.7427272333736994</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>10.654868303743976</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>11.066982143317272</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>9.0981286917982942</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>9.6317993197454186</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>12.351481872761472</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>16.090831585456979</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>15.753129428740756</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>16.954111036099874</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>16.479918781725893</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>18.861458424592232</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>18.218677152206961</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>16.756066445927491</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>16.301238284933909</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>13.460506844417534</v>
+        <v>17.947342459223378</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>12.510408788554201</v>
+        <v>16.680545051405602</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>15.086886324048546</v>
+        <v>20.115848432064727</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>15.331823762529307</v>
+        <v>20.442431683372408</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>13.660743770774818</v>
+        <v>18.214325027699758</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>12.052846241851116</v>
+        <v>16.070461655801488</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>8.786514390991778</v>
+        <v>11.715352521322371</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>7.5245463681104905</v>
+        <v>10.032728490813987</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>7.7780245767734275</v>
+        <v>10.370699435697903</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>7.3070454250302754</v>
+        <v>9.7427272333736994</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>7.9911512278079826</v>
+        <v>10.654868303743976</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>8.3002366074879532</v>
+        <v>11.066982143317272</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>6.8235965188487206</v>
+        <v>9.0981286917982942</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>7.2238494898090639</v>
+        <v>9.6317993197454186</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>9.2636114045711047</v>
+        <v>12.351481872761472</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>12.068123689092735</v>
+        <v>16.090831585456979</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>11.814847071555567</v>
+        <v>15.753129428740756</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>12.715583277074904</v>
+        <v>16.954111036099874</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>12.359939086294418</v>
+        <v>16.479918781725893</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>13.970231534566723</v>
+        <v>18.626975379422298</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>14.146093818444175</v>
+        <v>18.861458424592232</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>13.66400786415522</v>
+        <v>18.218677152206961</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>12.567049834445619</v>
+        <v>16.756066445927491</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>12.22592871370043</v>
+        <v>16.301238284933909</v>
       </c>
     </row>
   </sheetData>
